--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t>organisation</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t xml:space="preserve">organization </t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>(organisation and 'has characteristic' some 'organisational source role')</t>
+          <t>(organization and 'has characteristic' some 'organisational source role')</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
